--- a/04_Modelling/01_benthic/01_BRUVs/03_BRT_biomass_BRUVS/BRT_Outputs/contrib_mod_best_fixed_reduced_Log_biomass_gaussian.xlsx
+++ b/04_Modelling/01_benthic/01_BRUVs/03_BRT_biomass_BRUVS/BRT_Outputs/contrib_mod_best_fixed_reduced_Log_biomass_gaussian.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,57 +376,47 @@
         </is>
       </c>
       <c r="B2">
-        <v>57.77627387403908</v>
+        <v>42.97186235291004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TravelTime</t>
+          <t>SummitDepth</t>
         </is>
       </c>
       <c r="B3">
-        <v>10.50512439712741</v>
+        <v>23.46270553981704</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>seafloorTemp</t>
+          <t>TravelTime</t>
         </is>
       </c>
       <c r="B4">
-        <v>9.861220867180979</v>
+        <v>13.17892359937018</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SSTmax</t>
+          <t>Salinity</t>
         </is>
       </c>
       <c r="B5">
-        <v>8.631631206992598</v>
+        <v>11.04735767731502</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Salinity</t>
+          <t>seafloorTemp</t>
         </is>
       </c>
       <c r="B6">
-        <v>6.63658334740203</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SuspendedParticulateMatter</t>
-        </is>
-      </c>
-      <c r="B7">
-        <v>6.589166307257903</v>
+        <v>9.339150830587737</v>
       </c>
     </row>
   </sheetData>
